--- a/Processed/Buildings_Heat_UK.xlsx
+++ b/Processed/Buildings_Heat_UK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\REN21\GSR 2022 - Documents\Data and Research\Buildings\!Processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fec28a7282d28e21/2. Areas/Coding/Python/projects/heat_country_data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D6150-F3B7-42A3-97E8-2E96A304E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22597" yWindow="-3818" windowWidth="22695" windowHeight="14475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22597" yWindow="-3818" windowWidth="22695" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1_UK" sheetId="6" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.0\ ;\-#,##0.0\ ;&quot;-  &quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00000000000_ ;\-#,##0.00000000000\ "/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000000000_ ;\-#,##0.00000000000\ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -904,6 +904,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,8 +921,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 3" xfId="6" xr:uid="{539F1993-3AB9-4567-8686-AF16AAAFA9F2}"/>
@@ -3957,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2502E846-EF44-45C4-AB14-A79B2D040D6D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3994,26 +3994,26 @@
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="60">
         <v>2020</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -4030,7 +4030,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="60"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="25" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
@@ -4233,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCC6F2-3CF9-44F5-BD06-4FDDEEC93ACD}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4270,24 +4270,24 @@
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="60">
         <v>2020</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -4304,7 +4304,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="60"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="25" t="s">
         <v>24</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="25" t="s">
         <v>25</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
@@ -4425,7 +4425,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="14" t="s">
         <v>30</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>14.100723720000001</v>
       </c>
       <c r="C10" s="47">
-        <f t="shared" ref="C10:K10" si="1">C9*0.041868</f>
+        <f t="shared" ref="C10:I10" si="1">C9*0.041868</f>
         <v>5.8971077999999997</v>
       </c>
       <c r="D10" s="47">
@@ -4972,7 +4972,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
-      <c r="F11" s="61">
+      <c r="F11" s="56">
         <f>F10/K10</f>
         <v>0.57317605641126801</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="L12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="57">
         <f>SUM(B10:G10)+N9+J10</f>
         <v>1951.7213122681792</v>
       </c>
@@ -5332,15 +5332,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE8480B7C632594FA313C10E3948A31B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="294d08aa59b3a2306e0b7933d74d31b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14bb2503-ddb6-49cc-80f3-06fb7081acb2" xmlns:ns3="361aa444-5cc2-4dfb-bc3c-4ebb8d1d865e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed99d9e309e7f8758d28b1b6ac4a0b4c" ns2:_="" ns3:_="">
     <xsd:import namespace="14bb2503-ddb6-49cc-80f3-06fb7081acb2"/>
@@ -5557,6 +5548,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E510C4F-07ED-47EB-A55B-128ED0B4183D}">
   <ds:schemaRefs>
@@ -5567,14 +5567,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A016EC-5AE6-473F-B6CD-01DD4B0BC57A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA581134-CB8E-4277-954B-661327E9A7DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5591,4 +5583,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A016EC-5AE6-473F-B6CD-01DD4B0BC57A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>